--- a/data/case1/2/Qlm2_14.xlsx
+++ b/data/case1/2/Qlm2_14.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.18800836608460969</v>
+        <v>-0.24806121495476674</v>
       </c>
       <c r="B1" s="0">
-        <v>0.18789960859370325</v>
+        <v>0.24785262924747542</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.16579470283222797</v>
+        <v>-0.14829472432063007</v>
       </c>
       <c r="B2" s="0">
-        <v>0.16536247329558229</v>
+        <v>0.14794202502065268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.080294561828541333</v>
+        <v>-0.098240167336903994</v>
       </c>
       <c r="B3" s="0">
-        <v>0.079997385142183575</v>
+        <v>0.097941941583554737</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.071997385192981156</v>
+        <v>-0.089941941648937984</v>
       </c>
       <c r="B4" s="0">
-        <v>0.071677762722357485</v>
+        <v>0.089545088584159771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.068677762750617433</v>
+        <v>-0.086545088621147848</v>
       </c>
       <c r="B5" s="0">
-        <v>0.067605452242506914</v>
+        <v>0.085201537157288065</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.047348291493898742</v>
+        <v>-0.017723483871954215</v>
       </c>
       <c r="B6" s="0">
-        <v>0.046887009762855314</v>
+        <v>0.017611866193286474</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.036887009833912465</v>
+        <v>-0.0076118662848196905</v>
       </c>
       <c r="B7" s="0">
-        <v>0.036777419071709616</v>
+        <v>0.0075978055841514625</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.026777419145118664</v>
+        <v>0.0024021943237504395</v>
       </c>
       <c r="B8" s="0">
-        <v>0.026590470059649096</v>
+        <v>-0.0024068553961833494</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.02459047009592652</v>
+        <v>0.0044068553554752476</v>
       </c>
       <c r="B9" s="0">
-        <v>0.02443953102687102</v>
+        <v>-0.0044082616744054448</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.022439531065780116</v>
+        <v>0.0064082616341121224</v>
       </c>
       <c r="B10" s="0">
-        <v>0.022430346277541702</v>
+        <v>-0.0064079191704937699</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.019430346321704484</v>
+        <v>0.0094079191238103377</v>
       </c>
       <c r="B11" s="0">
-        <v>0.019415240403527712</v>
+        <v>-0.0094081515334130117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.01591524045078696</v>
+        <v>0.012908151483875141</v>
       </c>
       <c r="B12" s="0">
-        <v>0.015811101519185744</v>
+        <v>-0.012932782890636929</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.012311101568918126</v>
+        <v>-0.014937040943279634</v>
       </c>
       <c r="B13" s="0">
-        <v>0.012269253040870787</v>
+        <v>0.014924523508414111</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0042692531137635825</v>
+        <v>-0.0069245235855062148</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0042611525133144923</v>
+        <v>0.0069229352323798565</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0032611525514854023</v>
+        <v>-0.0059229352651311018</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0032581403230951267</v>
+        <v>0.0059182916631099758</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0012581403664722046</v>
+        <v>-0.0060326376767783074</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0012567899352711187</v>
+        <v>0.0060032012797917034</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040034594194668927</v>
+        <v>-0.0040032013202990768</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999462212443</v>
+        <v>0.0039999999464104263</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016104905792364121</v>
+        <v>-0.093557904967578764</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016091349820293033</v>
+        <v>0.093336294791125596</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091349841216292</v>
+        <v>-0.044024460439790136</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016665161864726</v>
+        <v>0.043432623573657736</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080166651844706394</v>
+        <v>-0.03943262361136135</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056396667700369</v>
+        <v>0.039271178207499702</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056396896313018</v>
+        <v>-0.035271178247092472</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999769468886</v>
+        <v>0.035032666332921458</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.081067911495367184</v>
+        <v>-0.045701857719766537</v>
       </c>
       <c r="B22" s="0">
-        <v>0.080574369857760786</v>
+        <v>0.045491676327090502</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.075574369894437332</v>
+        <v>-0.040491676371488872</v>
       </c>
       <c r="B23" s="0">
-        <v>0.07458018763629326</v>
+        <v>0.040097515415445706</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.054580187755280285</v>
+        <v>-0.020097515559854173</v>
       </c>
       <c r="B24" s="0">
-        <v>0.054118805904931122</v>
+        <v>0.019999999853611783</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.018257160778668791</v>
+        <v>-0.065478053325215058</v>
       </c>
       <c r="B25" s="0">
-        <v>0.018248233749197595</v>
+        <v>0.065393994281212287</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.015748233781874177</v>
+        <v>-0.094569092521224363</v>
       </c>
       <c r="B26" s="0">
-        <v>0.01573917379193901</v>
+        <v>0.09441305756401519</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.013239173824916683</v>
+        <v>-0.091913057611376026</v>
       </c>
       <c r="B27" s="0">
-        <v>0.013196571325084783</v>
+        <v>0.090986654070008832</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.011196571357105611</v>
+        <v>-0.088986654127235276</v>
       </c>
       <c r="B28" s="0">
-        <v>0.011177936374422437</v>
+        <v>0.088352468652152183</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.041169549435303487</v>
+        <v>-0.081352468751084928</v>
       </c>
       <c r="B29" s="0">
-        <v>0.041120327374225774</v>
+        <v>0.081168767690726007</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.052079028707116226</v>
+        <v>-0.021168768133814186</v>
       </c>
       <c r="B30" s="0">
-        <v>0.051672392161302483</v>
+        <v>0.021022604514183918</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.01402230729779852</v>
+        <v>-0.014022604620908652</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001149301556381</v>
+        <v>0.014001007085269634</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040011493817768695</v>
+        <v>-0.0040010072117091511</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999496931338</v>
+        <v>0.0039999999118336405</v>
       </c>
     </row>
   </sheetData>
